--- a/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Default Dataset" sheetId="1" r:id="rId1"/>
-    <sheet name="PAac" sheetId="2" r:id="rId4"/>
-    <sheet name="PCac" sheetId="3" r:id="rId5"/>
-    <sheet name="ZAac" sheetId="4" r:id="rId6"/>
-    <sheet name="ZBac" sheetId="5" r:id="rId7"/>
-    <sheet name="ZCac" sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_1 PAac  0-1-0-6 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_2 PBac  0-1-0-5 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_3 PCac  0-1-0-2 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_4 ZAac  0-1-0-9 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_5 ZBac  0-1-0-4 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_6 ZCac  0-1-0-0.7 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Default Dataset</t>
+    <t>PAac</t>
   </si>
   <si>
     <t>X</t>
@@ -28,7 +28,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>PAac</t>
+    <t>PBac</t>
   </si>
   <si>
     <t>PCac</t>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki Default Dataset</a:t>
+              <a:t>Izoterma adsorpcji probki PAac z wykresu 'Figure 1_1' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_1 PAac  0-1-0-6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Default Dataset'!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_1 PAac  0-1-0-6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -194,6 +194,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -263,6 +265,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -427,7 +431,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PAac</a:t>
+              <a:t>Izoterma adsorpcji probki PBac z wykresu 'Figure 1_2' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -486,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PAac!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_2 PBac  0-1-0-5 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PAac!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_2 PBac  0-1-0-5 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -504,6 +508,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -573,6 +579,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -737,7 +745,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki PCac</a:t>
+              <a:t>Izoterma adsorpcji probki PCac z wykresu 'Figure 1_3' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -796,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>PCac!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_3 PCac  0-1-0-2 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PCac!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_3 PCac  0-1-0-2 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -814,6 +822,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -883,6 +893,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1047,7 +1059,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ZAac</a:t>
+              <a:t>Izoterma adsorpcji probki ZAac z wykresu 'Figure 1_4' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1106,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZAac!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_4 ZAac  0-1-0-9 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZAac!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_4 ZAac  0-1-0-9 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1124,6 +1136,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1193,6 +1207,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="9"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1357,7 +1373,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ZBac</a:t>
+              <a:t>Izoterma adsorpcji probki ZBac z wykresu 'Figure 1_5' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1416,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZBac!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_5 ZBac  0-1-0-4 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZBac!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_5 ZBac  0-1-0-4 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1434,6 +1450,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1503,6 +1521,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1667,7 +1687,7 @@
             </a:pPr>
             <a:r>
               <a:rPr/>
-              <a:t>Izoterma adsorpcji probki ZCac</a:t>
+              <a:t>Izoterma adsorpcji probki ZCac z wykresu 'Figure 1_6' </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1726,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>ZCac!$A$3:$A$50</c:f>
+              <c:f>'Figure 1_6 ZCac  0-1-0-0.7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ZCac!$B$3:$B$50</c:f>
+              <c:f>'Figure 1_6 ZCac  0-1-0-0.7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1744,6 +1764,8 @@
         <c:axId val="1"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1813,6 +1835,8 @@
         <c:axId val="2"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.699999988079071"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5817,6 +5841,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>-0.0013</v>
+      </c>
+      <c r="B3" s="0">
+        <v>2.0162</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>-0.0026</v>
+      </c>
+      <c r="B4" s="0">
+        <v>1.0317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.0016</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.7404</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.001</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.5508</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B7" s="0">
+        <v>1.3914</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.0009</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>0.0044</v>
+      </c>
+      <c r="B9" s="0">
+        <v>2.2531</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.0086</v>
+      </c>
+      <c r="B10" s="0">
+        <v>2.4445</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.0131</v>
+      </c>
+      <c r="B11" s="0">
+        <v>2.6745</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.0223</v>
+      </c>
+      <c r="B12" s="0">
+        <v>2.934</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.0466</v>
+      </c>
+      <c r="B13" s="0">
+        <v>3.1195</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.069</v>
+      </c>
+      <c r="B14" s="0">
+        <v>3.2464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.0905</v>
+      </c>
+      <c r="B15" s="0">
+        <v>3.3176</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.1141</v>
+      </c>
+      <c r="B16" s="0">
+        <v>3.3995</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.1368</v>
+      </c>
+      <c r="B17" s="0">
+        <v>3.4736</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.158</v>
+      </c>
+      <c r="B18" s="0">
+        <v>3.5099</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.1823</v>
+      </c>
+      <c r="B19" s="0">
+        <v>3.5614</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.2062</v>
+      </c>
+      <c r="B20" s="0">
+        <v>3.6178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.2302</v>
+      </c>
+      <c r="B21" s="0">
+        <v>3.6376</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.252</v>
+      </c>
+      <c r="B22" s="0">
+        <v>3.7027</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.2759</v>
+      </c>
+      <c r="B23" s="0">
+        <v>3.7309</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.2977</v>
+      </c>
+      <c r="B24" s="0">
+        <v>3.7834</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.32</v>
+      </c>
+      <c r="B25" s="0">
+        <v>3.8183</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.3424</v>
+      </c>
+      <c r="B26" s="0">
+        <v>3.8573</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.3674</v>
+      </c>
+      <c r="B27" s="0">
+        <v>3.9072</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.3864</v>
+      </c>
+      <c r="B28" s="0">
+        <v>3.929</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.4131</v>
+      </c>
+      <c r="B29" s="0">
+        <v>3.9811</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.4326</v>
+      </c>
+      <c r="B30" s="0">
+        <v>4.0084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.4577</v>
+      </c>
+      <c r="B31" s="0">
+        <v>4.0365</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>0.4798</v>
+      </c>
+      <c r="B32" s="0">
+        <v>4.0743</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.502</v>
+      </c>
+      <c r="B33" s="0">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.5264</v>
+      </c>
+      <c r="B34" s="0">
+        <v>4.1431</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.5464</v>
+      </c>
+      <c r="B35" s="0">
+        <v>4.1585</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.5732</v>
+      </c>
+      <c r="B36" s="0">
+        <v>4.2005</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.5932</v>
+      </c>
+      <c r="B37" s="0">
+        <v>4.2452</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0.6173</v>
+      </c>
+      <c r="B38" s="0">
+        <v>4.2883</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.6398</v>
+      </c>
+      <c r="B39" s="0">
+        <v>4.3368</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.6609</v>
+      </c>
+      <c r="B40" s="0">
+        <v>4.3527</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.6873</v>
+      </c>
+      <c r="B41" s="0">
+        <v>4.4054</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.7066</v>
+      </c>
+      <c r="B42" s="0">
+        <v>4.4329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0.7332</v>
+      </c>
+      <c r="B43" s="0">
+        <v>4.4913</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.7533</v>
+      </c>
+      <c r="B44" s="0">
+        <v>4.5338</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0.7777</v>
+      </c>
+      <c r="B45" s="0">
+        <v>4.5809</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0.7999</v>
+      </c>
+      <c r="B46" s="0">
+        <v>4.6352</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0.8216</v>
+      </c>
+      <c r="B47" s="0">
+        <v>4.6554</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0.8475</v>
+      </c>
+      <c r="B48" s="0">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.8673</v>
+      </c>
+      <c r="B49" s="0">
+        <v>4.7879</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0.892</v>
+      </c>
+      <c r="B50" s="0">
+        <v>4.8063</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0.9098</v>
+      </c>
+      <c r="B51" s="0">
+        <v>4.8909</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0.9309</v>
+      </c>
+      <c r="B52" s="0">
+        <v>4.9142</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0.9538</v>
+      </c>
+      <c r="B53" s="0">
+        <v>5.0107</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.9764</v>
+      </c>
+      <c r="B54" s="0">
+        <v>5.1065</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.9891</v>
+      </c>
+      <c r="B55" s="0">
+        <v>5.2955</v>
+      </c>
+    </row>
+    <row r="56"/>
+  </sheetData>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5825,7 +6301,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -6181,458 +6657,6 @@
       </c>
     </row>
     <row r="46"/>
-  </sheetData>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0">
-        <v>-0.0013</v>
-      </c>
-      <c r="B3" s="0">
-        <v>2.0162</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0">
-        <v>-0.0026</v>
-      </c>
-      <c r="B4" s="0">
-        <v>1.0317</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0">
-        <v>0.0016</v>
-      </c>
-      <c r="B5" s="0">
-        <v>1.7404</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>0.001</v>
-      </c>
-      <c r="B6" s="0">
-        <v>1.5508</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B7" s="0">
-        <v>1.3914</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0">
-        <v>0.0009</v>
-      </c>
-      <c r="B8" s="0">
-        <v>1.232</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0">
-        <v>0.0044</v>
-      </c>
-      <c r="B9" s="0">
-        <v>2.2531</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="0">
-        <v>0.0086</v>
-      </c>
-      <c r="B10" s="0">
-        <v>2.4445</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0">
-        <v>0.0131</v>
-      </c>
-      <c r="B11" s="0">
-        <v>2.6745</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0">
-        <v>0.0223</v>
-      </c>
-      <c r="B12" s="0">
-        <v>2.934</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0">
-        <v>0.0466</v>
-      </c>
-      <c r="B13" s="0">
-        <v>3.1195</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="0">
-        <v>0.069</v>
-      </c>
-      <c r="B14" s="0">
-        <v>3.2464</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="0">
-        <v>0.0905</v>
-      </c>
-      <c r="B15" s="0">
-        <v>3.3176</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.1141</v>
-      </c>
-      <c r="B16" s="0">
-        <v>3.3995</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.1368</v>
-      </c>
-      <c r="B17" s="0">
-        <v>3.4736</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.158</v>
-      </c>
-      <c r="B18" s="0">
-        <v>3.5099</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="0">
-        <v>0.1823</v>
-      </c>
-      <c r="B19" s="0">
-        <v>3.5614</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="0">
-        <v>0.2062</v>
-      </c>
-      <c r="B20" s="0">
-        <v>3.6178</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="0">
-        <v>0.2302</v>
-      </c>
-      <c r="B21" s="0">
-        <v>3.6376</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0">
-        <v>0.252</v>
-      </c>
-      <c r="B22" s="0">
-        <v>3.7027</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0">
-        <v>0.2759</v>
-      </c>
-      <c r="B23" s="0">
-        <v>3.7309</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="0">
-        <v>0.2977</v>
-      </c>
-      <c r="B24" s="0">
-        <v>3.7834</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0">
-        <v>0.32</v>
-      </c>
-      <c r="B25" s="0">
-        <v>3.8183</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0">
-        <v>0.3424</v>
-      </c>
-      <c r="B26" s="0">
-        <v>3.8573</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0">
-        <v>0.3674</v>
-      </c>
-      <c r="B27" s="0">
-        <v>3.9072</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0">
-        <v>0.3864</v>
-      </c>
-      <c r="B28" s="0">
-        <v>3.929</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0">
-        <v>0.4131</v>
-      </c>
-      <c r="B29" s="0">
-        <v>3.9811</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0">
-        <v>0.4326</v>
-      </c>
-      <c r="B30" s="0">
-        <v>4.0084</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0">
-        <v>0.4577</v>
-      </c>
-      <c r="B31" s="0">
-        <v>4.0365</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="0">
-        <v>0.4798</v>
-      </c>
-      <c r="B32" s="0">
-        <v>4.0743</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0">
-        <v>0.502</v>
-      </c>
-      <c r="B33" s="0">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="0">
-        <v>0.5264</v>
-      </c>
-      <c r="B34" s="0">
-        <v>4.1431</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="0">
-        <v>0.5464</v>
-      </c>
-      <c r="B35" s="0">
-        <v>4.1585</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="0">
-        <v>0.5732</v>
-      </c>
-      <c r="B36" s="0">
-        <v>4.2005</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="0">
-        <v>0.5932</v>
-      </c>
-      <c r="B37" s="0">
-        <v>4.2452</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0">
-        <v>0.6173</v>
-      </c>
-      <c r="B38" s="0">
-        <v>4.2883</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="0">
-        <v>0.6398</v>
-      </c>
-      <c r="B39" s="0">
-        <v>4.3368</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="0">
-        <v>0.6609</v>
-      </c>
-      <c r="B40" s="0">
-        <v>4.3527</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="0">
-        <v>0.6873</v>
-      </c>
-      <c r="B41" s="0">
-        <v>4.4054</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0">
-        <v>0.7066</v>
-      </c>
-      <c r="B42" s="0">
-        <v>4.4329</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.7332</v>
-      </c>
-      <c r="B43" s="0">
-        <v>4.4913</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.7533</v>
-      </c>
-      <c r="B44" s="0">
-        <v>4.5338</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7777</v>
-      </c>
-      <c r="B45" s="0">
-        <v>4.5809</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7999</v>
-      </c>
-      <c r="B46" s="0">
-        <v>4.6352</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8216</v>
-      </c>
-      <c r="B47" s="0">
-        <v>4.6554</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8475</v>
-      </c>
-      <c r="B48" s="0">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8673</v>
-      </c>
-      <c r="B49" s="0">
-        <v>4.7879</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B50" s="0">
-        <v>4.8063</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9098</v>
-      </c>
-      <c r="B51" s="0">
-        <v>4.8909</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9309</v>
-      </c>
-      <c r="B52" s="0">
-        <v>4.9142</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9538</v>
-      </c>
-      <c r="B53" s="0">
-        <v>5.0107</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9764</v>
-      </c>
-      <c r="B54" s="0">
-        <v>5.1065</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B55" s="0">
-        <v>5.2955</v>
-      </c>
-    </row>
-    <row r="56"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
@@ -5841,7 +5841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5862,429 +5862,341 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0013</v>
+        <v>0.96</v>
       </c>
       <c r="B3" s="0">
-        <v>2.0162</v>
+        <v>5.0163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0026</v>
+        <v>0.98</v>
       </c>
       <c r="B4" s="0">
-        <v>1.0317</v>
+        <v>5.1379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0016</v>
+        <v>0.8595</v>
       </c>
       <c r="B5" s="0">
-        <v>1.7404</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.001</v>
+        <v>0.8198</v>
       </c>
       <c r="B6" s="0">
-        <v>1.5508</v>
+        <v>4.6686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0009</v>
+        <v>0.7801</v>
       </c>
       <c r="B7" s="0">
-        <v>1.3914</v>
+        <v>4.5994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0009</v>
+        <v>0.7416</v>
       </c>
       <c r="B8" s="0">
-        <v>1.232</v>
+        <v>4.5216</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0044</v>
+        <v>0.6982</v>
       </c>
       <c r="B9" s="0">
-        <v>2.2531</v>
+        <v>4.4265</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0086</v>
+        <v>0.6586</v>
       </c>
       <c r="B10" s="0">
-        <v>2.4445</v>
+        <v>4.3746</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0131</v>
+        <v>0.6201</v>
       </c>
       <c r="B11" s="0">
-        <v>2.6745</v>
+        <v>4.3141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0223</v>
+        <v>0.5804</v>
       </c>
       <c r="B12" s="0">
-        <v>2.934</v>
+        <v>4.2277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0466</v>
+        <v>0.5408</v>
       </c>
       <c r="B13" s="0">
-        <v>3.1195</v>
+        <v>4.1758</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.069</v>
+        <v>0.4998</v>
       </c>
       <c r="B14" s="0">
-        <v>3.2464</v>
+        <v>4.1066</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0905</v>
+        <v>0.4589</v>
       </c>
       <c r="B15" s="0">
-        <v>3.3176</v>
+        <v>4.0461</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1141</v>
+        <v>0.4192</v>
       </c>
       <c r="B16" s="0">
-        <v>3.3995</v>
+        <v>3.9856</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.1368</v>
+        <v>0.3796</v>
       </c>
       <c r="B17" s="0">
-        <v>3.4736</v>
+        <v>3.8991</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.158</v>
+        <v>0.3448</v>
       </c>
       <c r="B18" s="0">
-        <v>3.5099</v>
+        <v>3.8732</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.1823</v>
+        <v>0.3262</v>
       </c>
       <c r="B19" s="0">
-        <v>3.5614</v>
+        <v>3.8386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2062</v>
+        <v>0.3052</v>
       </c>
       <c r="B20" s="0">
-        <v>3.6178</v>
+        <v>3.7781</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.2302</v>
+        <v>0.2828</v>
       </c>
       <c r="B21" s="0">
-        <v>3.6376</v>
+        <v>3.7522</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.252</v>
+        <v>0.2593</v>
       </c>
       <c r="B22" s="0">
-        <v>3.7027</v>
+        <v>3.7176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2759</v>
+        <v>0.2357</v>
       </c>
       <c r="B23" s="0">
-        <v>3.7309</v>
+        <v>3.6657</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.2977</v>
+        <v>0.2109</v>
       </c>
       <c r="B24" s="0">
-        <v>3.7834</v>
+        <v>3.6225</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.32</v>
+        <v>0.1824</v>
       </c>
       <c r="B25" s="0">
-        <v>3.8183</v>
+        <v>3.5706</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.3424</v>
+        <v>0.1539</v>
       </c>
       <c r="B26" s="0">
-        <v>3.8573</v>
+        <v>3.4928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.3674</v>
+        <v>0.1402</v>
       </c>
       <c r="B27" s="0">
-        <v>3.9072</v>
+        <v>3.4669</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.3864</v>
+        <v>0.1142</v>
       </c>
       <c r="B28" s="0">
-        <v>3.929</v>
+        <v>3.4063</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4131</v>
+        <v>0.0918</v>
       </c>
       <c r="B29" s="0">
-        <v>3.9811</v>
+        <v>3.3545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.4326</v>
+        <v>0.0831</v>
       </c>
       <c r="B30" s="0">
-        <v>4.0084</v>
+        <v>3.2853</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.4577</v>
+        <v>0.0496</v>
       </c>
       <c r="B31" s="0">
-        <v>4.0365</v>
+        <v>3.147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.4798</v>
+        <v>0.021</v>
       </c>
       <c r="B32" s="0">
-        <v>4.0743</v>
+        <v>2.9481</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.502</v>
+        <v>0.0008</v>
       </c>
       <c r="B33" s="0">
-        <v>4.09</v>
+        <v>2.0403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.5264</v>
+        <v>0.0017</v>
       </c>
       <c r="B34" s="0">
-        <v>4.1431</v>
+        <v>1.0548</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.5464</v>
+        <v>0.8905</v>
       </c>
       <c r="B35" s="0">
-        <v>4.1585</v>
+        <v>4.8069</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.5732</v>
+        <v>0.9041</v>
       </c>
       <c r="B36" s="0">
-        <v>4.2005</v>
+        <v>4.8501</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.5932</v>
+        <v>0.9165</v>
       </c>
       <c r="B37" s="0">
-        <v>4.2452</v>
+        <v>4.8761</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.6173</v>
+        <v>0.9289</v>
       </c>
       <c r="B38" s="0">
-        <v>4.2883</v>
+        <v>4.9107</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.6398</v>
+        <v>0.9401</v>
       </c>
       <c r="B39" s="0">
-        <v>4.3368</v>
+        <v>4.9366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.6609</v>
+        <v>0.9488</v>
       </c>
       <c r="B40" s="0">
-        <v>4.3527</v>
+        <v>4.9625</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.6873</v>
+        <v>0.9699</v>
       </c>
       <c r="B41" s="0">
-        <v>4.4054</v>
+        <v>5.0749</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7066</v>
+        <v>0.9935</v>
       </c>
       <c r="B42" s="0">
-        <v>4.4329</v>
+        <v>5.2565</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.7332</v>
+        <v>0.9985</v>
       </c>
       <c r="B43" s="0">
-        <v>4.4913</v>
+        <v>5.3429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.7533</v>
+        <v>0.9873</v>
       </c>
       <c r="B44" s="0">
-        <v>4.5338</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.7777</v>
-      </c>
-      <c r="B45" s="0">
-        <v>4.5809</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.7999</v>
-      </c>
-      <c r="B46" s="0">
-        <v>4.6352</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.8216</v>
-      </c>
-      <c r="B47" s="0">
-        <v>4.6554</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.8475</v>
-      </c>
-      <c r="B48" s="0">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.8673</v>
-      </c>
-      <c r="B49" s="0">
-        <v>4.7879</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.892</v>
-      </c>
-      <c r="B50" s="0">
-        <v>4.8063</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>0.9098</v>
-      </c>
-      <c r="B51" s="0">
-        <v>4.8909</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="0">
-        <v>0.9309</v>
-      </c>
-      <c r="B52" s="0">
-        <v>4.9142</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="0">
-        <v>0.9538</v>
-      </c>
-      <c r="B53" s="0">
-        <v>5.0107</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="0">
-        <v>0.9764</v>
-      </c>
-      <c r="B54" s="0">
-        <v>5.1065</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="0">
-        <v>0.9891</v>
-      </c>
-      <c r="B55" s="0">
-        <v>5.2955</v>
-      </c>
-    </row>
-    <row r="56"/>
+        <v>5.1873</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
@@ -6205,7 +6205,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6234,341 +6234,333 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.038</v>
+        <v>0.9749</v>
       </c>
       <c r="B4" s="0">
-        <v>1.7517</v>
+        <v>3.8266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0622</v>
+        <v>0.9891</v>
       </c>
       <c r="B5" s="0">
-        <v>1.8439</v>
+        <v>3.9772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0854</v>
+        <v>0.9963</v>
       </c>
       <c r="B6" s="0">
-        <v>1.8832</v>
+        <v>4.1734</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.111</v>
+        <v>0.0322</v>
       </c>
       <c r="B7" s="0">
-        <v>1.9535</v>
+        <v>1.7491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1366</v>
+        <v>0.0481</v>
       </c>
       <c r="B8" s="0">
-        <v>1.9802</v>
+        <v>1.8389</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1572</v>
+        <v>0.0732</v>
       </c>
       <c r="B9" s="0">
-        <v>2.0173</v>
+        <v>1.8989</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1813</v>
+        <v>0.0879</v>
       </c>
       <c r="B10" s="0">
-        <v>2.0481</v>
+        <v>1.9214</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2064</v>
+        <v>0.1107</v>
       </c>
       <c r="B11" s="0">
-        <v>2.0726</v>
+        <v>1.959</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2304</v>
+        <v>0.138</v>
       </c>
       <c r="B12" s="0">
-        <v>2.0801</v>
+        <v>2.0115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2546</v>
+        <v>0.1539</v>
       </c>
       <c r="B13" s="0">
-        <v>2.1102</v>
+        <v>2.034</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2789</v>
+        <v>0.1766</v>
       </c>
       <c r="B14" s="0">
-        <v>2.137</v>
+        <v>2.0566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3038</v>
+        <v>0.205</v>
       </c>
       <c r="B15" s="0">
-        <v>2.1684</v>
+        <v>2.0867</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.328</v>
+        <v>0.2277</v>
       </c>
       <c r="B16" s="0">
-        <v>2.1853</v>
+        <v>2.0944</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.351</v>
+        <v>0.2516</v>
       </c>
       <c r="B17" s="0">
-        <v>2.2049</v>
+        <v>2.1244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3771</v>
+        <v>0.2755</v>
       </c>
       <c r="B18" s="0">
-        <v>2.2242</v>
+        <v>2.1545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4023</v>
+        <v>0.3028</v>
       </c>
       <c r="B19" s="0">
-        <v>2.2751</v>
+        <v>2.1846</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4235</v>
+        <v>0.3221</v>
       </c>
       <c r="B20" s="0">
-        <v>2.2825</v>
+        <v>2.2147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4519</v>
+        <v>0.3425</v>
       </c>
       <c r="B21" s="0">
-        <v>2.3083</v>
+        <v>2.2148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4731</v>
+        <v>0.3778</v>
       </c>
       <c r="B22" s="0">
-        <v>2.3359</v>
+        <v>2.2524</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4976</v>
+        <v>0.4164</v>
       </c>
       <c r="B23" s="0">
-        <v>2.3686</v>
+        <v>2.2976</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5234</v>
+        <v>0.4585</v>
       </c>
       <c r="B24" s="0">
-        <v>2.4009</v>
+        <v>2.3353</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5447</v>
+        <v>0.4971</v>
       </c>
       <c r="B25" s="0">
-        <v>2.4113</v>
+        <v>2.3804</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.573</v>
+        <v>0.5392</v>
       </c>
       <c r="B26" s="0">
-        <v>2.4547</v>
+        <v>2.4255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5952</v>
+        <v>0.5767</v>
       </c>
       <c r="B27" s="0">
-        <v>2.5128</v>
+        <v>2.4856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6183</v>
+        <v>0.6165</v>
       </c>
       <c r="B28" s="0">
-        <v>2.5416</v>
+        <v>2.5607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6455</v>
+        <v>0.654</v>
       </c>
       <c r="B29" s="0">
-        <v>2.597</v>
+        <v>2.6282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6664</v>
+        <v>0.6972</v>
       </c>
       <c r="B30" s="0">
-        <v>2.6363</v>
+        <v>2.7406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6935</v>
+        <v>0.7359</v>
       </c>
       <c r="B31" s="0">
-        <v>2.7108</v>
+        <v>2.8381</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7164</v>
+        <v>0.7745</v>
       </c>
       <c r="B32" s="0">
-        <v>2.7777</v>
+        <v>2.9729</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7392</v>
+        <v>0.8143</v>
       </c>
       <c r="B33" s="0">
-        <v>2.8161</v>
+        <v>3.1227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7669</v>
+        <v>0.8553</v>
       </c>
       <c r="B34" s="0">
-        <v>2.9314</v>
+        <v>3.2874</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7882</v>
+        <v>0.8871</v>
       </c>
       <c r="B35" s="0">
-        <v>3.002</v>
+        <v>3.4296</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8133</v>
+        <v>0.9008</v>
       </c>
       <c r="B36" s="0">
-        <v>3.0968</v>
+        <v>3.4821</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8376</v>
+        <v>0.9133</v>
       </c>
       <c r="B37" s="0">
-        <v>3.2216</v>
+        <v>3.527</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8597</v>
+        <v>0.9247</v>
       </c>
       <c r="B38" s="0">
-        <v>3.2877</v>
+        <v>3.5719</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.8878</v>
+        <v>0.936</v>
       </c>
       <c r="B39" s="0">
-        <v>3.4135</v>
+        <v>3.6169</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9103</v>
+        <v>0.9474</v>
       </c>
       <c r="B40" s="0">
-        <v>3.4828</v>
+        <v>3.6618</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9328</v>
+        <v>0.9577</v>
       </c>
       <c r="B41" s="0">
-        <v>3.59</v>
+        <v>3.7142</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9519</v>
+        <v>0.9656</v>
       </c>
       <c r="B42" s="0">
-        <v>3.7045</v>
+        <v>3.7666</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9749</v>
+        <v>0.9804</v>
       </c>
       <c r="B43" s="0">
-        <v>3.8266</v>
+        <v>3.9012</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9891</v>
+        <v>0.9941</v>
       </c>
       <c r="B44" s="0">
-        <v>3.9772</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9963</v>
-      </c>
-      <c r="B45" s="0">
-        <v>4.1734</v>
-      </c>
-    </row>
-    <row r="46"/>
+        <v>4.0582</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6577,7 +6569,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6598,349 +6590,341 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0093</v>
+        <v>0.0083</v>
       </c>
       <c r="B3" s="0">
-        <v>0.9483</v>
+        <v>0.9581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0483</v>
+        <v>0.0521</v>
       </c>
       <c r="B4" s="0">
-        <v>1.1282</v>
+        <v>1.1636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0601</v>
+        <v>0.0678</v>
       </c>
       <c r="B5" s="0">
-        <v>1.1855</v>
+        <v>1.2042</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0831</v>
+        <v>0.0897</v>
       </c>
       <c r="B6" s="0">
-        <v>1.2125</v>
+        <v>1.2385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1079</v>
+        <v>0.1105</v>
       </c>
       <c r="B7" s="0">
-        <v>1.2346</v>
+        <v>1.2511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1331</v>
+        <v>0.1376</v>
       </c>
       <c r="B8" s="0">
-        <v>1.2484</v>
+        <v>1.2606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1537</v>
+        <v>0.1533</v>
       </c>
       <c r="B9" s="0">
-        <v>1.261</v>
+        <v>1.2762</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1786</v>
+        <v>0.1762</v>
       </c>
       <c r="B10" s="0">
-        <v>1.265</v>
+        <v>1.2764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2021</v>
+        <v>0.1971</v>
       </c>
       <c r="B11" s="0">
-        <v>1.2795</v>
+        <v>1.2858</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2271</v>
+        <v>0.2242</v>
       </c>
       <c r="B12" s="0">
-        <v>1.2908</v>
+        <v>1.2984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2515</v>
+        <v>0.2492</v>
       </c>
       <c r="B13" s="0">
-        <v>1.2932</v>
+        <v>1.3017</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2758</v>
+        <v>0.2722</v>
       </c>
       <c r="B14" s="0">
-        <v>1.3055</v>
+        <v>1.3112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3016</v>
+        <v>0.3003</v>
       </c>
       <c r="B15" s="0">
-        <v>1.3052</v>
+        <v>1.3176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3257</v>
+        <v>0.317</v>
       </c>
       <c r="B16" s="0">
-        <v>1.3089</v>
+        <v>1.3208</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3484</v>
+        <v>0.3389</v>
       </c>
       <c r="B17" s="0">
-        <v>1.3217</v>
+        <v>1.3271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.3758</v>
+        <v>0.3785</v>
       </c>
       <c r="B18" s="0">
-        <v>1.3177</v>
+        <v>1.3336</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.399</v>
+        <v>0.415</v>
       </c>
       <c r="B19" s="0">
-        <v>1.3327</v>
+        <v>1.3338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4212</v>
+        <v>0.4546</v>
       </c>
       <c r="B20" s="0">
-        <v>1.3211</v>
+        <v>1.3434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.4497</v>
+        <v>0.4995</v>
       </c>
       <c r="B21" s="0">
-        <v>1.3322</v>
+        <v>1.3437</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4711</v>
+        <v>0.5381</v>
       </c>
       <c r="B22" s="0">
-        <v>1.3398</v>
+        <v>1.347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.4968</v>
+        <v>0.5766</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3312</v>
+        <v>1.3566</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5216</v>
+        <v>0.6152</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3437</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.543</v>
+        <v>0.6569</v>
       </c>
       <c r="B25" s="0">
-        <v>1.3378</v>
+        <v>1.3696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.5715</v>
+        <v>0.6966</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3464</v>
+        <v>1.3729</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.5938</v>
+        <v>0.7351</v>
       </c>
       <c r="B27" s="0">
-        <v>1.3571</v>
+        <v>1.3856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.617</v>
+        <v>0.7737</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3462</v>
+        <v>1.3952</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.644</v>
+        <v>0.8154</v>
       </c>
       <c r="B29" s="0">
-        <v>1.3618</v>
+        <v>1.411</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.6648</v>
+        <v>0.854</v>
       </c>
       <c r="B30" s="0">
-        <v>1.3618</v>
+        <v>1.4268</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6926</v>
+        <v>0.8853</v>
       </c>
       <c r="B31" s="0">
-        <v>1.3608</v>
+        <v>1.4519</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7155</v>
+        <v>0.8989</v>
       </c>
       <c r="B32" s="0">
-        <v>1.3779</v>
+        <v>1.4644</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7379</v>
+        <v>0.9103</v>
       </c>
       <c r="B33" s="0">
-        <v>1.3727</v>
+        <v>1.4676</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7663</v>
+        <v>0.9208</v>
       </c>
       <c r="B34" s="0">
-        <v>1.3858</v>
+        <v>1.4801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.7871</v>
+        <v>0.9312</v>
       </c>
       <c r="B35" s="0">
-        <v>1.3937</v>
+        <v>1.4926</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8141</v>
+        <v>0.9395</v>
       </c>
       <c r="B36" s="0">
-        <v>1.3988</v>
+        <v>1.5082</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8373</v>
+        <v>0.9489</v>
       </c>
       <c r="B37" s="0">
-        <v>1.4195</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.8596</v>
+        <v>0.9635</v>
       </c>
       <c r="B38" s="0">
-        <v>1.4185</v>
+        <v>1.5643</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.887</v>
+        <v>0.9729</v>
       </c>
       <c r="B39" s="0">
-        <v>1.4415</v>
+        <v>1.5955</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9103</v>
+        <v>0.9802</v>
       </c>
       <c r="B40" s="0">
-        <v>1.4548</v>
+        <v>1.6297</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9347</v>
+        <v>0.9875</v>
       </c>
       <c r="B41" s="0">
-        <v>1.4878</v>
+        <v>1.6671</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9591</v>
+        <v>0.9927</v>
       </c>
       <c r="B42" s="0">
-        <v>1.5436</v>
+        <v>1.7542</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9829</v>
+        <v>0.9896</v>
       </c>
       <c r="B43" s="0">
-        <v>1.6076</v>
+        <v>1.7076</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9941</v>
+        <v>0.9948</v>
       </c>
       <c r="B44" s="0">
-        <v>1.7093</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.9967</v>
-      </c>
-      <c r="B45" s="0">
-        <v>1.7963</v>
-      </c>
-    </row>
-    <row r="46"/>
+        <v>1.7978</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -6949,7 +6933,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6970,397 +6954,325 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0022</v>
+        <v>-0.0003</v>
       </c>
       <c r="B3" s="0">
-        <v>0.9025</v>
+        <v>3.5614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0003</v>
+        <v>0.0033</v>
       </c>
       <c r="B4" s="0">
-        <v>3.5614</v>
+        <v>5.2154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0005</v>
+        <v>0.0031</v>
       </c>
       <c r="B5" s="0">
-        <v>2.6319</v>
+        <v>4.438</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0018</v>
+        <v>0.8923</v>
       </c>
       <c r="B6" s="0">
-        <v>1.7698</v>
+        <v>7.9349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0033</v>
+        <v>0.9142</v>
       </c>
       <c r="B7" s="0">
-        <v>5.2154</v>
+        <v>7.9645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0031</v>
+        <v>0.9378</v>
       </c>
       <c r="B8" s="0">
-        <v>4.438</v>
+        <v>8.0681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0201</v>
+        <v>0.9613</v>
       </c>
       <c r="B9" s="0">
-        <v>6.1122</v>
+        <v>8.1457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.0451</v>
+        <v>0.9849</v>
       </c>
       <c r="B10" s="0">
-        <v>6.5349</v>
+        <v>8.2048</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0688</v>
+        <v>1.0026</v>
       </c>
       <c r="B11" s="0">
-        <v>6.7576</v>
+        <v>8.2658</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.092</v>
+        <v>0.8598</v>
       </c>
       <c r="B12" s="0">
-        <v>6.8841</v>
+        <v>7.8955</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.113</v>
+        <v>0.8205</v>
       </c>
       <c r="B13" s="0">
-        <v>7.0368</v>
+        <v>7.896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.1395</v>
+        <v>0.7781</v>
       </c>
       <c r="B14" s="0">
-        <v>7.1301</v>
+        <v>7.8561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.1597</v>
+        <v>0.742</v>
       </c>
       <c r="B15" s="0">
-        <v>7.1459</v>
+        <v>7.8026</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.1864</v>
+        <v>0.7007</v>
       </c>
       <c r="B16" s="0">
-        <v>7.2176</v>
+        <v>7.7897</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.2101</v>
+        <v>0.6593</v>
       </c>
       <c r="B17" s="0">
-        <v>7.2689</v>
+        <v>7.7497</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.2326</v>
+        <v>0.619</v>
       </c>
       <c r="B18" s="0">
-        <v>7.3176</v>
+        <v>7.7368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.2558</v>
+        <v>0.5394</v>
       </c>
       <c r="B19" s="0">
-        <v>7.303</v>
+        <v>7.6299</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.2801</v>
+        <v>0.5819</v>
       </c>
       <c r="B20" s="0">
-        <v>7.3825</v>
+        <v>7.6833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.3034</v>
+        <v>0.4991</v>
       </c>
       <c r="B21" s="0">
-        <v>7.3848</v>
+        <v>7.617</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.3258</v>
+        <v>0.4588</v>
       </c>
       <c r="B22" s="0">
-        <v>7.4422</v>
+        <v>7.5635</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.3493</v>
+        <v>0.4185</v>
       </c>
       <c r="B23" s="0">
-        <v>7.4741</v>
+        <v>7.5776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3729</v>
+        <v>0.3804</v>
       </c>
       <c r="B24" s="0">
-        <v>7.5084</v>
+        <v>7.5376</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.3955</v>
+        <v>0.1141</v>
       </c>
       <c r="B25" s="0">
-        <v>7.5624</v>
+        <v>7.015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4197</v>
+        <v>0.0472</v>
       </c>
       <c r="B26" s="0">
-        <v>7.5392</v>
+        <v>6.6111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4435</v>
+        <v>0.0152</v>
       </c>
       <c r="B27" s="0">
-        <v>7.625</v>
+        <v>6.1123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.467</v>
+        <v>-0.0004</v>
       </c>
       <c r="B28" s="0">
-        <v>7.5888</v>
+        <v>2.6582</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.4924</v>
+        <v>0.0004</v>
       </c>
       <c r="B29" s="0">
-        <v>7.5921</v>
+        <v>1.7811</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.5132</v>
+        <v>-0.0009</v>
       </c>
       <c r="B30" s="0">
-        <v>7.638</v>
+        <v>0.8636</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.5388</v>
+        <v>0.0748</v>
       </c>
       <c r="B31" s="0">
-        <v>7.593</v>
+        <v>6.8266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.5612</v>
+        <v>0.095</v>
       </c>
       <c r="B32" s="0">
-        <v>7.686</v>
+        <v>6.9343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.5838</v>
+        <v>0.1438</v>
       </c>
       <c r="B33" s="0">
-        <v>7.644</v>
+        <v>7.1225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.6082</v>
+        <v>0.1586</v>
       </c>
       <c r="B34" s="0">
-        <v>7.7131</v>
+        <v>7.1493</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.6318</v>
+        <v>0.1894</v>
       </c>
       <c r="B35" s="0">
-        <v>7.7388</v>
+        <v>7.2298</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.6553</v>
+        <v>0.2149</v>
       </c>
       <c r="B36" s="0">
-        <v>7.7248</v>
+        <v>7.2835</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.6789</v>
+        <v>0.2414</v>
       </c>
       <c r="B37" s="0">
-        <v>7.7777</v>
+        <v>7.3371</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.7024</v>
+        <v>0.2605</v>
       </c>
       <c r="B38" s="0">
-        <v>7.7717</v>
+        <v>7.3368</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.7268</v>
+        <v>0.2817</v>
       </c>
       <c r="B39" s="0">
-        <v>7.7882</v>
+        <v>7.377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.7475</v>
+        <v>0.305</v>
       </c>
       <c r="B40" s="0">
-        <v>7.7675</v>
+        <v>7.3767</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.773</v>
+        <v>0.3273</v>
       </c>
       <c r="B41" s="0">
-        <v>7.821</v>
+        <v>7.4304</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.7965</v>
+        <v>0.3453</v>
       </c>
       <c r="B42" s="0">
-        <v>7.8689</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0">
-        <v>0.8206</v>
-      </c>
-      <c r="B43" s="0">
-        <v>7.8634</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="0">
-        <v>0.8436</v>
-      </c>
-      <c r="B44" s="0">
-        <v>7.9141</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="0">
-        <v>0.8651</v>
-      </c>
-      <c r="B45" s="0">
-        <v>7.8765</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="0">
-        <v>0.8923</v>
-      </c>
-      <c r="B46" s="0">
-        <v>7.9349</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="0">
-        <v>0.9142</v>
-      </c>
-      <c r="B47" s="0">
-        <v>7.9645</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="0">
-        <v>0.9378</v>
-      </c>
-      <c r="B48" s="0">
-        <v>8.0681</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="0">
-        <v>0.9613</v>
-      </c>
-      <c r="B49" s="0">
-        <v>8.1457</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="0">
-        <v>0.9849</v>
-      </c>
-      <c r="B50" s="0">
-        <v>8.2048</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="0">
-        <v>1.0026</v>
-      </c>
-      <c r="B51" s="0">
-        <v>8.2658</v>
-      </c>
-    </row>
-    <row r="52"/>
+        <v>7.4571</v>
+      </c>
+    </row>
+    <row r="43"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7369,7 +7281,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7390,258 +7302,258 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.002</v>
+        <v>0.1105</v>
       </c>
       <c r="B3" s="0">
-        <v>0.9448</v>
+        <v>1.3833</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0487</v>
+        <v>0.9388</v>
       </c>
       <c r="B4" s="0">
-        <v>1.2689</v>
+        <v>2.9702</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0767</v>
+        <v>0.1363</v>
       </c>
       <c r="B5" s="0">
-        <v>1.3201</v>
+        <v>1.4079</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0892</v>
+        <v>0.4152</v>
       </c>
       <c r="B6" s="0">
-        <v>1.3587</v>
+        <v>1.6431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1105</v>
+        <v>0.4547</v>
       </c>
       <c r="B7" s="0">
-        <v>1.3833</v>
+        <v>1.6864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1742</v>
+        <v>0.4974</v>
       </c>
       <c r="B8" s="0">
-        <v>1.4344</v>
+        <v>1.7235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1997</v>
+        <v>0.5359</v>
       </c>
       <c r="B9" s="0">
-        <v>1.45</v>
+        <v>1.7729</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.2232</v>
+        <v>0.5765</v>
       </c>
       <c r="B10" s="0">
-        <v>1.4602</v>
+        <v>1.8284</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.2469</v>
+        <v>0.615</v>
       </c>
       <c r="B11" s="0">
-        <v>1.4916</v>
+        <v>1.8778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2964</v>
+        <v>0.7347</v>
       </c>
       <c r="B12" s="0">
-        <v>1.538</v>
+        <v>2.0813</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.3193</v>
+        <v>0.8512</v>
       </c>
       <c r="B13" s="0">
-        <v>1.547</v>
+        <v>2.4999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3421</v>
+        <v>0.8835</v>
       </c>
       <c r="B14" s="0">
-        <v>1.5666</v>
+        <v>2.6598</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8969</v>
+        <v>0.9282</v>
       </c>
       <c r="B15" s="0">
-        <v>2.7095</v>
+        <v>2.8997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9186</v>
+        <v>0.9594</v>
       </c>
       <c r="B16" s="0">
-        <v>2.8356</v>
+        <v>3.1334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9388</v>
+        <v>0.9927</v>
       </c>
       <c r="B17" s="0">
-        <v>2.9702</v>
+        <v>3.4715</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.9698</v>
+        <v>0.0021</v>
       </c>
       <c r="B18" s="0">
-        <v>3.2378</v>
+        <v>0.9585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9831</v>
+        <v>0.0468</v>
       </c>
       <c r="B19" s="0">
-        <v>3.4026</v>
+        <v>1.2845</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9949</v>
+        <v>0.0749</v>
       </c>
       <c r="B20" s="0">
-        <v>3.5549</v>
+        <v>1.3276</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.1363</v>
+        <v>0.0884</v>
       </c>
       <c r="B21" s="0">
-        <v>1.4079</v>
+        <v>1.3523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.1509</v>
+        <v>0.1498</v>
       </c>
       <c r="B22" s="0">
-        <v>1.4203</v>
+        <v>1.4264</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.2747</v>
+        <v>0.1759</v>
       </c>
       <c r="B23" s="0">
-        <v>1.5255</v>
+        <v>1.4573</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.3788</v>
+        <v>0.2019</v>
       </c>
       <c r="B24" s="0">
-        <v>1.6122</v>
+        <v>1.4636</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.4152</v>
+        <v>0.2248</v>
       </c>
       <c r="B25" s="0">
-        <v>1.6431</v>
+        <v>1.4883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.4547</v>
+        <v>0.2487</v>
       </c>
       <c r="B26" s="0">
-        <v>1.6864</v>
+        <v>1.513</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.4974</v>
+        <v>0.2758</v>
       </c>
       <c r="B27" s="0">
-        <v>1.7235</v>
+        <v>1.5378</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.5359</v>
+        <v>0.3007</v>
       </c>
       <c r="B28" s="0">
-        <v>1.7729</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.5765</v>
+        <v>0.3205</v>
       </c>
       <c r="B29" s="0">
-        <v>1.8284</v>
+        <v>1.5749</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.615</v>
+        <v>0.3413</v>
       </c>
       <c r="B30" s="0">
-        <v>1.8778</v>
+        <v>1.5874</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.6545</v>
+        <v>0.3788</v>
       </c>
       <c r="B31" s="0">
-        <v>1.9211</v>
+        <v>1.6244</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.693</v>
+        <v>0.6556</v>
       </c>
       <c r="B32" s="0">
-        <v>2.0012</v>
+        <v>1.9395</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7347</v>
+        <v>0.693</v>
       </c>
       <c r="B33" s="0">
-        <v>2.0813</v>
+        <v>2.0012</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.7732</v>
+        <v>0.7742</v>
       </c>
       <c r="B34" s="0">
-        <v>2.2044</v>
+        <v>2.2229</v>
       </c>
     </row>
     <row r="35">
@@ -7649,74 +7561,82 @@
         <v>0.8127</v>
       </c>
       <c r="B35" s="0">
-        <v>2.3276</v>
+        <v>2.3522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8512</v>
+        <v>0.898</v>
       </c>
       <c r="B36" s="0">
-        <v>2.4999</v>
+        <v>2.7398</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8835</v>
+        <v>0.9074</v>
       </c>
       <c r="B37" s="0">
-        <v>2.6598</v>
+        <v>2.7951</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.9053</v>
+        <v>0.9178</v>
       </c>
       <c r="B38" s="0">
-        <v>2.8013</v>
+        <v>2.8505</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9282</v>
+        <v>0.949</v>
       </c>
       <c r="B39" s="0">
-        <v>2.8997</v>
+        <v>3.0473</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.9511</v>
+        <v>0.9698</v>
       </c>
       <c r="B40" s="0">
-        <v>3.035</v>
+        <v>3.2195</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9594</v>
+        <v>0.9886</v>
       </c>
       <c r="B41" s="0">
-        <v>3.1334</v>
+        <v>3.3855</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9771</v>
+        <v>0.9781</v>
       </c>
       <c r="B42" s="0">
-        <v>3.3055</v>
+        <v>3.3117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9927</v>
+        <v>0.9979</v>
       </c>
       <c r="B43" s="0">
-        <v>3.4715</v>
-      </c>
-    </row>
-    <row r="44"/>
+        <v>3.6375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0.9969</v>
+      </c>
+      <c r="B44" s="0">
+        <v>3.5576</v>
+      </c>
+    </row>
+    <row r="45"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>
@@ -7725,7 +7645,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7746,373 +7666,381 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0198</v>
+        <v>0.918</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2254</v>
+        <v>0.3953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0424</v>
+        <v>0.9423</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2489</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0664</v>
+        <v>0.0079</v>
       </c>
       <c r="B5" s="0">
-        <v>0.2594</v>
+        <v>0.2057</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0915</v>
+        <v>0.0167</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2668</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.1145</v>
+        <v>0.9945</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2725</v>
+        <v>0.6418</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.1414</v>
+        <v>0.9944</v>
       </c>
       <c r="B8" s="0">
-        <v>0.2756</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.1679</v>
+        <v>0.9933</v>
       </c>
       <c r="B9" s="0">
-        <v>0.2801</v>
+        <v>0.5966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.1929</v>
+        <v>0.9878</v>
       </c>
       <c r="B10" s="0">
-        <v>0.2816</v>
+        <v>0.5535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.218</v>
+        <v>0.9889</v>
       </c>
       <c r="B11" s="0">
-        <v>0.2847</v>
+        <v>0.5729</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.2431</v>
+        <v>0.9845</v>
       </c>
       <c r="B12" s="0">
-        <v>0.2853</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.2681</v>
+        <v>0.9779</v>
       </c>
       <c r="B13" s="0">
-        <v>0.2886</v>
+        <v>0.5061</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.2939</v>
+        <v>0.9724</v>
       </c>
       <c r="B14" s="0">
-        <v>0.2905</v>
+        <v>0.4889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.3183</v>
+        <v>0.968</v>
       </c>
       <c r="B15" s="0">
-        <v>0.2907</v>
+        <v>0.4684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.3412</v>
+        <v>0.9593</v>
       </c>
       <c r="B16" s="0">
-        <v>0.2911</v>
+        <v>0.4512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.3689</v>
+        <v>0.9517</v>
       </c>
       <c r="B17" s="0">
-        <v>0.2947</v>
+        <v>0.4361</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.39</v>
+        <v>0.9298</v>
       </c>
       <c r="B18" s="0">
-        <v>0.2955</v>
+        <v>0.4102</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.4177</v>
+        <v>0.9015</v>
       </c>
       <c r="B19" s="0">
-        <v>0.2954</v>
+        <v>0.3876</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.4421</v>
+        <v>0.8873</v>
       </c>
       <c r="B20" s="0">
-        <v>0.2997</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.465</v>
+        <v>0.8557</v>
       </c>
       <c r="B21" s="0">
-        <v>0.2992</v>
+        <v>0.3628</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.4936</v>
+        <v>0.8186</v>
       </c>
       <c r="B22" s="0">
-        <v>0.2996</v>
+        <v>0.3487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.5408</v>
+        <v>0.7783</v>
       </c>
       <c r="B23" s="0">
-        <v>0.3001</v>
+        <v>0.3358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.5694</v>
+        <v>0.738</v>
       </c>
       <c r="B24" s="0">
-        <v>0.304</v>
+        <v>0.3271</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.5914</v>
+        <v>0.6977</v>
       </c>
       <c r="B25" s="0">
-        <v>0.3069</v>
+        <v>0.3217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.6174</v>
+        <v>0.6574</v>
       </c>
       <c r="B26" s="0">
-        <v>0.3089</v>
+        <v>0.3162</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.6434</v>
+        <v>0.617</v>
       </c>
       <c r="B27" s="0">
-        <v>0.3129</v>
+        <v>0.3119</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.6653</v>
+        <v>0.5778</v>
       </c>
       <c r="B28" s="0">
-        <v>0.3134</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.6939</v>
+        <v>0.5364</v>
       </c>
       <c r="B29" s="0">
-        <v>0.3175</v>
+        <v>0.3043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.7175</v>
+        <v>0.4972</v>
       </c>
       <c r="B30" s="0">
-        <v>0.3222</v>
+        <v>0.3032</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.7412</v>
+        <v>0.4591</v>
       </c>
       <c r="B31" s="0">
-        <v>0.3233</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.7698</v>
+        <v>0.4188</v>
       </c>
       <c r="B32" s="0">
-        <v>0.3306</v>
+        <v>0.2998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.7917</v>
+        <v>0.3795</v>
       </c>
       <c r="B33" s="0">
-        <v>0.3376</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.8177</v>
+        <v>0.3392</v>
       </c>
       <c r="B34" s="0">
-        <v>0.3453</v>
+        <v>0.2944</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.8447</v>
+        <v>0.3196</v>
       </c>
       <c r="B35" s="0">
-        <v>0.3565</v>
+        <v>0.2943</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>0.8663</v>
+        <v>0.2978</v>
       </c>
       <c r="B36" s="0">
-        <v>0.3657</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>0.8929</v>
+        <v>0.2739</v>
       </c>
       <c r="B37" s="0">
-        <v>0.3795</v>
+        <v>0.2932</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.918</v>
+        <v>0.2499</v>
       </c>
       <c r="B38" s="0">
-        <v>0.3953</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>0.9423</v>
+        <v>0.2009</v>
       </c>
       <c r="B39" s="0">
-        <v>0.421</v>
+        <v>0.2856</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.964</v>
+        <v>0.2248</v>
       </c>
       <c r="B40" s="0">
-        <v>0.4503</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.9717</v>
+        <v>0.1769</v>
       </c>
       <c r="B41" s="0">
-        <v>0.487</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.9811</v>
+        <v>0.1519</v>
       </c>
       <c r="B42" s="0">
-        <v>0.5138</v>
+        <v>0.2802</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.9898</v>
+        <v>0.1355</v>
       </c>
       <c r="B43" s="0">
-        <v>0.5424</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.9929</v>
+        <v>0.1137</v>
       </c>
       <c r="B44" s="0">
-        <v>0.5831</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.9946</v>
+        <v>0.0952</v>
       </c>
       <c r="B45" s="0">
-        <v>0.6351</v>
+        <v>0.2747</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>0.9946</v>
+        <v>0.0614</v>
       </c>
       <c r="B46" s="0">
-        <v>0.6138</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>0.5157</v>
+        <v>0.0778</v>
       </c>
       <c r="B47" s="0">
-        <v>0.3021</v>
+        <v>0.2693</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.009</v>
+        <v>0.0407</v>
       </c>
       <c r="B48" s="0">
-        <v>0.2068</v>
-      </c>
-    </row>
-    <row r="49"/>
+        <v>0.2564</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0.0276</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.2391</v>
+      </c>
+    </row>
+    <row r="50"/>
   </sheetData>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 53 Preparation and characterisation of/Data53_all_graphs_excel.xlsx
@@ -5,12 +5,12 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1_1 PAac  0-1-0-6 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1_2 PBac  0-1-0-5 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 1_3 PCac  0-1-0-2 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 1_4 ZAac  0-1-0-9 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 1_5 ZBac  0-1-0-4 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 1_6 ZCac  0-1-0-0.7 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 1_1 PAac  0&amp;1&amp;0&amp;6 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1_2 PBac  0&amp;1&amp;0&amp;5 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 1_3 PCac  0&amp;1&amp;0&amp;2 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 1_4 ZAac  0&amp;1&amp;0&amp;9 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 1_5 ZBac  0&amp;1&amp;0&amp;4 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 1_6 ZCac  0&amp;1&amp;0&amp;0.7 " sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -176,12 +176,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_1 PAac  0-1-0-6 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_1 PAac  0&amp;1&amp;0&amp;6 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_1 PAac  0-1-0-6 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_1 PAac  0&amp;1&amp;0&amp;6 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -490,12 +490,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_2 PBac  0-1-0-5 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_2 PBac  0&amp;1&amp;0&amp;5 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_2 PBac  0-1-0-5 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_2 PBac  0&amp;1&amp;0&amp;5 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -804,12 +804,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_3 PCac  0-1-0-2 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_3 PCac  0&amp;1&amp;0&amp;2 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_3 PCac  0-1-0-2 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_3 PCac  0&amp;1&amp;0&amp;2 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1118,12 +1118,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_4 ZAac  0-1-0-9 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_4 ZAac  0&amp;1&amp;0&amp;9 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_4 ZAac  0-1-0-9 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_4 ZAac  0&amp;1&amp;0&amp;9 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1432,12 +1432,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_5 ZBac  0-1-0-4 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_5 ZBac  0&amp;1&amp;0&amp;4 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_5 ZBac  0-1-0-4 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_5 ZBac  0&amp;1&amp;0&amp;4 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1746,12 +1746,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 1_6 ZCac  0-1-0-0.7 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 1_6 ZCac  0&amp;1&amp;0&amp;0.7 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 1_6 ZCac  0-1-0-0.7 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 1_6 ZCac  0&amp;1&amp;0&amp;0.7 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
